--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_understat.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_understat.xlsx
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
         <v>0</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9956,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -10892,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T146" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148" t="n">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -11252,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="S150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T152" t="n">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155" t="n">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159" t="n">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161" t="n">
         <v>0</v>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T165" t="n">
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T166" t="n">
         <v>0</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T168" t="n">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -12692,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -12839,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="T172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="S173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T173" t="n">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="T174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T176" t="n">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="S180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T180" t="n">
         <v>0</v>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="S182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T182" t="n">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="T183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="T184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T185" t="n">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T186" t="n">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="S189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T189" t="n">
         <v>0</v>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="S190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
         <v>0</v>
@@ -14207,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -14276,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="S192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T192" t="n">
         <v>0</v>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T195" t="n">
         <v>0</v>
@@ -14564,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="S196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -14711,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="T198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T199" t="n">
         <v>0</v>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="S201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T201" t="n">
         <v>0</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T202" t="n">
         <v>0</v>
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="T203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="S205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T205" t="n">
         <v>0</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T206" t="n">
         <v>0</v>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="T207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="S208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T208" t="n">
         <v>0</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="T209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210" t="n">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="T211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="S212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T212" t="n">
         <v>0</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T215" t="n">
         <v>0</v>
@@ -16004,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="S216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T216" t="n">
         <v>0</v>
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="T217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -16148,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="S218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T218" t="n">
         <v>0</v>
@@ -16223,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="T220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
         <v>0</v>
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="S222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T222" t="n">
         <v>0</v>
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="T223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T224" t="n">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="T225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="T226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -16796,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T227" t="n">
         <v>0</v>
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="S228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T228" t="n">
         <v>0</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -17012,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="S230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="T232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T233" t="n">
         <v>0</v>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="T236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T237" t="n">
         <v>0</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="T238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="T241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T245" t="n">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -18236,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="S247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T247" t="n">
         <v>0</v>
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T248" t="n">
         <v>0</v>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T250" t="n">
         <v>0</v>
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="S252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T252" t="n">
         <v>0</v>
@@ -18671,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="T253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -18740,7 +18740,7 @@
         <v>1</v>
       </c>
       <c r="S254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T254" t="n">
         <v>0</v>
@@ -18815,7 +18815,7 @@
         <v>0</v>
       </c>
       <c r="T255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -18887,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="T256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T257" t="n">
         <v>0</v>
@@ -19028,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="S258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -19172,7 +19172,7 @@
         <v>1</v>
       </c>
       <c r="S260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T260" t="n">
         <v>0</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="T261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T262" t="n">
         <v>0</v>
@@ -19391,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="T263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="S264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T264" t="n">
         <v>0</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T266" t="n">
         <v>0</v>
@@ -19679,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="T267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="T268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T269" t="n">
         <v>0</v>
@@ -19892,7 +19892,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T270" t="n">
         <v>0</v>
@@ -19967,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="T271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T272" t="n">
         <v>0</v>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="T273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -20180,7 +20180,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T274" t="n">
         <v>0</v>
@@ -20255,7 +20255,7 @@
         <v>0</v>
       </c>
       <c r="T275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="T276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T277" t="n">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T279" t="n">
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="S280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T280" t="n">
         <v>0</v>
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="T281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -20756,7 +20756,7 @@
         <v>1</v>
       </c>
       <c r="S282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T282" t="n">
         <v>0</v>
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="T283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="T284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
         <v>0</v>
@@ -21047,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="T286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="S287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T287" t="n">
         <v>0</v>
@@ -21188,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
         <v>0</v>
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="T289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T290" t="n">
         <v>0</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="T291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -21476,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T292" t="n">
         <v>0</v>
@@ -21551,7 +21551,7 @@
         <v>0</v>
       </c>
       <c r="T293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="T294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -21692,7 +21692,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T295" t="n">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="T296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T297" t="n">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>1</v>
       </c>
       <c r="S300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T300" t="n">
         <v>0</v>
@@ -22127,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -22196,7 +22196,7 @@
         <v>0</v>
       </c>
       <c r="S302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T302" t="n">
         <v>0</v>
@@ -22271,7 +22271,7 @@
         <v>0</v>
       </c>
       <c r="T303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="T304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -22412,7 +22412,7 @@
         <v>1</v>
       </c>
       <c r="S305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T305" t="n">
         <v>0</v>
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T307" t="n">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T308" t="n">
         <v>0</v>
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -22775,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -22844,7 +22844,7 @@
         <v>1</v>
       </c>
       <c r="S311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T311" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="T312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="S313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T313" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -23132,7 +23132,7 @@
         <v>1</v>
       </c>
       <c r="S315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T315" t="n">
         <v>0</v>
@@ -23204,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T316" t="n">
         <v>0</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="T317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -23348,7 +23348,7 @@
         <v>1</v>
       </c>
       <c r="S318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T318" t="n">
         <v>0</v>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="T319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="T320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -23564,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T321" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="T322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T323" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>1</v>
       </c>
       <c r="S324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T324" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="T325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -23924,7 +23924,7 @@
         <v>1</v>
       </c>
       <c r="S326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T326" t="n">
         <v>0</v>
@@ -23999,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="T327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -24140,7 +24140,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T329" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="T330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -24284,7 +24284,7 @@
         <v>1</v>
       </c>
       <c r="S331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T331" t="n">
         <v>0</v>
@@ -24356,7 +24356,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T332" t="n">
         <v>0</v>
@@ -24431,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="T333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="T334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -24572,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="S335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T335" t="n">
         <v>0</v>
@@ -24644,7 +24644,7 @@
         <v>1</v>
       </c>
       <c r="S336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T336" t="n">
         <v>0</v>
@@ -24719,7 +24719,7 @@
         <v>0</v>
       </c>
       <c r="T337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -24788,7 +24788,7 @@
         <v>1</v>
       </c>
       <c r="S338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T338" t="n">
         <v>0</v>
@@ -24863,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="T339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T341" t="n">
         <v>0</v>
@@ -25076,7 +25076,7 @@
         <v>1</v>
       </c>
       <c r="S342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T342" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T344" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="T345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="T346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -25436,7 +25436,7 @@
         <v>1</v>
       </c>
       <c r="S347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T347" t="n">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="T348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -25580,7 +25580,7 @@
         <v>1</v>
       </c>
       <c r="S349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T349" t="n">
         <v>0</v>
@@ -25655,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="T350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -25724,7 +25724,7 @@
         <v>1</v>
       </c>
       <c r="S351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T351" t="n">
         <v>0</v>
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="T352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -25868,7 +25868,7 @@
         <v>1</v>
       </c>
       <c r="S353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T353" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T355" t="n">
         <v>0</v>
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
       <c r="T356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -26156,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T357" t="n">
         <v>0</v>
@@ -26228,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="S358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T358" t="n">
         <v>0</v>
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="T359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -26372,7 +26372,7 @@
         <v>1</v>
       </c>
       <c r="S360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T360" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="T361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -26519,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="T362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -26588,7 +26588,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T363" t="n">
         <v>0</v>
@@ -26660,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T364" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="T365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T366" t="n">
         <v>0</v>
@@ -26879,7 +26879,7 @@
         <v>0</v>
       </c>
       <c r="T367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -26948,7 +26948,7 @@
         <v>1</v>
       </c>
       <c r="S368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T368" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="T369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="T370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -27164,7 +27164,7 @@
         <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T371" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>1</v>
       </c>
       <c r="S372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T372" t="n">
         <v>0</v>
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="T373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="T374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -27452,7 +27452,7 @@
         <v>1</v>
       </c>
       <c r="S375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T375" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T376" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="T377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="T380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -27884,7 +27884,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T381" t="n">
         <v>0</v>
@@ -27959,7 +27959,7 @@
         <v>0</v>
       </c>
       <c r="T382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -28028,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="S383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T383" t="n">
         <v>0</v>
@@ -28100,7 +28100,7 @@
         <v>1</v>
       </c>
       <c r="S384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T384" t="n">
         <v>0</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="T385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -28247,7 +28247,7 @@
         <v>0</v>
       </c>
       <c r="T386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -28316,7 +28316,7 @@
         <v>1</v>
       </c>
       <c r="S387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T387" t="n">
         <v>0</v>
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="T390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T391" t="n">
         <v>0</v>
@@ -28676,7 +28676,7 @@
         <v>1</v>
       </c>
       <c r="S392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T392" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="T393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="S394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T394" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="T395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="T396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -29036,7 +29036,7 @@
         <v>1</v>
       </c>
       <c r="S397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T397" t="n">
         <v>0</v>
@@ -29108,7 +29108,7 @@
         <v>1</v>
       </c>
       <c r="S398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T398" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="T399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="T402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="S403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T403" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="T406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -29756,7 +29756,7 @@
         <v>1</v>
       </c>
       <c r="S407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T407" t="n">
         <v>0</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T408" t="n">
         <v>0</v>
@@ -29903,7 +29903,7 @@
         <v>0</v>
       </c>
       <c r="T409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -29972,7 +29972,7 @@
         <v>1</v>
       </c>
       <c r="S410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T410" t="n">
         <v>0</v>
@@ -30047,7 +30047,7 @@
         <v>0</v>
       </c>
       <c r="T411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -30116,7 +30116,7 @@
         <v>1</v>
       </c>
       <c r="S412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T412" t="n">
         <v>0</v>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="T413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -30260,7 +30260,7 @@
         <v>0</v>
       </c>
       <c r="S414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T414" t="n">
         <v>0</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="T415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T416" t="n">
         <v>0</v>
@@ -30479,7 +30479,7 @@
         <v>0</v>
       </c>
       <c r="T417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -30548,7 +30548,7 @@
         <v>1</v>
       </c>
       <c r="S418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T418" t="n">
         <v>0</v>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="T419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T420" t="n">
         <v>0</v>
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="T421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="T422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -30908,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T423" t="n">
         <v>0</v>
@@ -30980,7 +30980,7 @@
         <v>0</v>
       </c>
       <c r="S424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T424" t="n">
         <v>0</v>
@@ -31055,7 +31055,7 @@
         <v>0</v>
       </c>
       <c r="T425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -31124,7 +31124,7 @@
         <v>1</v>
       </c>
       <c r="S426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T426" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="T427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -31268,7 +31268,7 @@
         <v>1</v>
       </c>
       <c r="S428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T428" t="n">
         <v>0</v>
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="T429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -31415,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="T430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -31484,7 +31484,7 @@
         <v>0</v>
       </c>
       <c r="S431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T431" t="n">
         <v>0</v>
@@ -31559,7 +31559,7 @@
         <v>0</v>
       </c>
       <c r="T432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -31628,7 +31628,7 @@
         <v>1</v>
       </c>
       <c r="S433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T433" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>0</v>
       </c>
       <c r="S434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T434" t="n">
         <v>0</v>
@@ -31775,7 +31775,7 @@
         <v>0</v>
       </c>
       <c r="T435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="T436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -31916,7 +31916,7 @@
         <v>1</v>
       </c>
       <c r="S437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T437" t="n">
         <v>0</v>
@@ -32132,7 +32132,7 @@
         <v>1</v>
       </c>
       <c r="S440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T440" t="n">
         <v>0</v>
@@ -32207,7 +32207,7 @@
         <v>0</v>
       </c>
       <c r="T441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="T444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -32492,7 +32492,7 @@
         <v>1</v>
       </c>
       <c r="S445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T445" t="n">
         <v>0</v>
@@ -32564,7 +32564,7 @@
         <v>1</v>
       </c>
       <c r="S446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T446" t="n">
         <v>0</v>
@@ -32639,7 +32639,7 @@
         <v>0</v>
       </c>
       <c r="T447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -32711,7 +32711,7 @@
         <v>0</v>
       </c>
       <c r="T448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -32780,7 +32780,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T449" t="n">
         <v>0</v>
@@ -32855,7 +32855,7 @@
         <v>0</v>
       </c>
       <c r="T450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -32924,7 +32924,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T451" t="n">
         <v>0</v>
@@ -32999,7 +32999,7 @@
         <v>0</v>
       </c>
       <c r="T452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -33068,7 +33068,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T453" t="n">
         <v>0</v>
@@ -33284,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T456" t="n">
         <v>0</v>
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -33428,7 +33428,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T458" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -33572,7 +33572,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T460" t="n">
         <v>0</v>
@@ -33647,7 +33647,7 @@
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -33716,7 +33716,7 @@
         <v>1</v>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
         <v>0</v>
@@ -33791,7 +33791,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -33863,7 +33863,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -33932,7 +33932,7 @@
         <v>1</v>
       </c>
       <c r="S465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T465" t="n">
         <v>0</v>
@@ -34004,7 +34004,7 @@
         <v>1</v>
       </c>
       <c r="S466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T466" t="n">
         <v>0</v>
@@ -34079,7 +34079,7 @@
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -34148,7 +34148,7 @@
         <v>1</v>
       </c>
       <c r="S468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T468" t="n">
         <v>0</v>
@@ -34223,7 +34223,7 @@
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -34295,7 +34295,7 @@
         <v>0</v>
       </c>
       <c r="T470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -34364,7 +34364,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T471" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>1</v>
       </c>
       <c r="S472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T472" t="n">
         <v>0</v>
@@ -34511,7 +34511,7 @@
         <v>0</v>
       </c>
       <c r="T473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -34583,7 +34583,7 @@
         <v>0</v>
       </c>
       <c r="T474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T475" t="n">
         <v>0</v>
@@ -34871,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="T478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -34940,7 +34940,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T479" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T480" t="n">
         <v>0</v>
@@ -35087,7 +35087,7 @@
         <v>0</v>
       </c>
       <c r="T481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -35159,7 +35159,7 @@
         <v>0</v>
       </c>
       <c r="T482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -35228,7 +35228,7 @@
         <v>1</v>
       </c>
       <c r="S483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T483" t="n">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>0</v>
       </c>
       <c r="T484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -35372,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T485" t="n">
         <v>0</v>
@@ -35444,7 +35444,7 @@
         <v>1</v>
       </c>
       <c r="S486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T486" t="n">
         <v>0</v>
@@ -35519,7 +35519,7 @@
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -35591,7 +35591,7 @@
         <v>0</v>
       </c>
       <c r="T488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -35660,7 +35660,7 @@
         <v>1</v>
       </c>
       <c r="S489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T489" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="T490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T491" t="n">
         <v>0</v>
@@ -35876,7 +35876,7 @@
         <v>0</v>
       </c>
       <c r="S492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T492" t="n">
         <v>0</v>
@@ -35951,7 +35951,7 @@
         <v>0</v>
       </c>
       <c r="T493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -36020,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T494" t="n">
         <v>0</v>
@@ -36095,7 +36095,7 @@
         <v>0</v>
       </c>
       <c r="T495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -36164,7 +36164,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T496" t="n">
         <v>0</v>
@@ -36239,7 +36239,7 @@
         <v>0</v>
       </c>
       <c r="T497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -36308,7 +36308,7 @@
         <v>1</v>
       </c>
       <c r="S498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T498" t="n">
         <v>0</v>
@@ -36383,7 +36383,7 @@
         <v>0</v>
       </c>
       <c r="T499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T500" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="T501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -36599,7 +36599,7 @@
         <v>0</v>
       </c>
       <c r="T502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="S503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T503" t="n">
         <v>0</v>
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -36956,7 +36956,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
         <v>0</v>
@@ -37031,7 +37031,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -37100,7 +37100,7 @@
         <v>1</v>
       </c>
       <c r="S509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T509" t="n">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -37244,7 +37244,7 @@
         <v>1</v>
       </c>
       <c r="S511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T511" t="n">
         <v>0</v>
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T512" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -37532,7 +37532,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T515" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>1</v>
       </c>
       <c r="S516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T516" t="n">
         <v>0</v>
@@ -37679,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -37748,7 +37748,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T518" t="n">
         <v>0</v>
@@ -37823,7 +37823,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -37895,7 +37895,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -37964,7 +37964,7 @@
         <v>1</v>
       </c>
       <c r="S521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T521" t="n">
         <v>0</v>
@@ -38039,7 +38039,7 @@
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -38108,7 +38108,7 @@
         <v>1</v>
       </c>
       <c r="S523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T523" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="S525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T525" t="n">
         <v>0</v>
@@ -38327,7 +38327,7 @@
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -38396,7 +38396,7 @@
         <v>0</v>
       </c>
       <c r="S527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T527" t="n">
         <v>0</v>
@@ -38471,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="T528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -38540,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T529" t="n">
         <v>0</v>
@@ -38612,7 +38612,7 @@
         <v>1</v>
       </c>
       <c r="S530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T530" t="n">
         <v>0</v>
@@ -38687,7 +38687,7 @@
         <v>0</v>
       </c>
       <c r="T531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -38756,7 +38756,7 @@
         <v>0</v>
       </c>
       <c r="S532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T532" t="n">
         <v>0</v>
@@ -38831,7 +38831,7 @@
         <v>0</v>
       </c>
       <c r="T533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -38900,7 +38900,7 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T534" t="n">
         <v>0</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="T535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -39047,7 +39047,7 @@
         <v>0</v>
       </c>
       <c r="T536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -39116,7 +39116,7 @@
         <v>1</v>
       </c>
       <c r="S537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T537" t="n">
         <v>0</v>
@@ -39188,7 +39188,7 @@
         <v>1</v>
       </c>
       <c r="S538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T538" t="n">
         <v>0</v>
@@ -39263,7 +39263,7 @@
         <v>0</v>
       </c>
       <c r="T539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -39332,7 +39332,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T540" t="n">
         <v>0</v>
@@ -39407,7 +39407,7 @@
         <v>0</v>
       </c>
       <c r="T541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -39479,7 +39479,7 @@
         <v>0</v>
       </c>
       <c r="T542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -39548,7 +39548,7 @@
         <v>1</v>
       </c>
       <c r="S543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T543" t="n">
         <v>0</v>
@@ -39620,7 +39620,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T544" t="n">
         <v>0</v>
@@ -39695,7 +39695,7 @@
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="T546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -39836,7 +39836,7 @@
         <v>0</v>
       </c>
       <c r="S547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T547" t="n">
         <v>0</v>
@@ -39911,7 +39911,7 @@
         <v>0</v>
       </c>
       <c r="T548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -39980,7 +39980,7 @@
         <v>1</v>
       </c>
       <c r="S549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T549" t="n">
         <v>0</v>
@@ -40052,7 +40052,7 @@
         <v>0</v>
       </c>
       <c r="S550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T550" t="n">
         <v>0</v>
@@ -40127,7 +40127,7 @@
         <v>0</v>
       </c>
       <c r="T551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -40199,7 +40199,7 @@
         <v>0</v>
       </c>
       <c r="T552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -40268,7 +40268,7 @@
         <v>1</v>
       </c>
       <c r="S553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T553" t="n">
         <v>0</v>
@@ -40340,7 +40340,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T554" t="n">
         <v>0</v>
@@ -40415,7 +40415,7 @@
         <v>0</v>
       </c>
       <c r="T555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -40484,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T556" t="n">
         <v>0</v>
@@ -40559,7 +40559,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -40631,7 +40631,7 @@
         <v>0</v>
       </c>
       <c r="T558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -40700,7 +40700,7 @@
         <v>0</v>
       </c>
       <c r="S559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T559" t="n">
         <v>0</v>
@@ -40775,7 +40775,7 @@
         <v>0</v>
       </c>
       <c r="T560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -40844,7 +40844,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T561" t="n">
         <v>0</v>
@@ -40919,7 +40919,7 @@
         <v>0</v>
       </c>
       <c r="T562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -40988,7 +40988,7 @@
         <v>1</v>
       </c>
       <c r="S563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T563" t="n">
         <v>0</v>
@@ -41063,7 +41063,7 @@
         <v>0</v>
       </c>
       <c r="T564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -41132,7 +41132,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T565" t="n">
         <v>0</v>
@@ -41204,7 +41204,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T566" t="n">
         <v>0</v>
@@ -41279,7 +41279,7 @@
         <v>0</v>
       </c>
       <c r="T567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -41351,7 +41351,7 @@
         <v>0</v>
       </c>
       <c r="T568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -41420,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T569" t="n">
         <v>0</v>
@@ -41492,7 +41492,7 @@
         <v>0</v>
       </c>
       <c r="S570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T570" t="n">
         <v>0</v>
@@ -41567,7 +41567,7 @@
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -41636,7 +41636,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T572" t="n">
         <v>0</v>
@@ -41711,7 +41711,7 @@
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -41924,7 +41924,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T576" t="n">
         <v>0</v>
@@ -41999,7 +41999,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -42071,7 +42071,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -42140,7 +42140,7 @@
         <v>0</v>
       </c>
       <c r="S579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T579" t="n">
         <v>0</v>
@@ -42215,7 +42215,7 @@
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -42284,7 +42284,7 @@
         <v>0</v>
       </c>
       <c r="S581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T581" t="n">
         <v>0</v>
@@ -42356,7 +42356,7 @@
         <v>1</v>
       </c>
       <c r="S582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T582" t="n">
         <v>0</v>
@@ -42431,7 +42431,7 @@
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T584" t="n">
         <v>0</v>
@@ -42575,7 +42575,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -42644,7 +42644,7 @@
         <v>1</v>
       </c>
       <c r="S586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T586" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -42788,7 +42788,7 @@
         <v>1</v>
       </c>
       <c r="S588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T588" t="n">
         <v>0</v>
@@ -42863,7 +42863,7 @@
         <v>0</v>
       </c>
       <c r="T589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -42932,7 +42932,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T590" t="n">
         <v>0</v>
@@ -43007,7 +43007,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -43076,7 +43076,7 @@
         <v>1</v>
       </c>
       <c r="S592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T592" t="n">
         <v>0</v>
@@ -43151,7 +43151,7 @@
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -43220,7 +43220,7 @@
         <v>0</v>
       </c>
       <c r="S594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T594" t="n">
         <v>0</v>
@@ -43295,7 +43295,7 @@
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -43367,7 +43367,7 @@
         <v>0</v>
       </c>
       <c r="T596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -43436,7 +43436,7 @@
         <v>1</v>
       </c>
       <c r="S597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T597" t="n">
         <v>0</v>
@@ -43508,7 +43508,7 @@
         <v>1</v>
       </c>
       <c r="S598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T598" t="n">
         <v>0</v>
@@ -43583,7 +43583,7 @@
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -43796,7 +43796,7 @@
         <v>1</v>
       </c>
       <c r="S602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T602" t="n">
         <v>0</v>
@@ -43871,7 +43871,7 @@
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -43940,7 +43940,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T604" t="n">
         <v>0</v>
@@ -44015,7 +44015,7 @@
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -44084,7 +44084,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T606" t="n">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -44231,7 +44231,7 @@
         <v>0</v>
       </c>
       <c r="T608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -44300,7 +44300,7 @@
         <v>1</v>
       </c>
       <c r="S609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T609" t="n">
         <v>0</v>
@@ -44372,7 +44372,7 @@
         <v>1</v>
       </c>
       <c r="S610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T610" t="n">
         <v>0</v>
@@ -44447,7 +44447,7 @@
         <v>0</v>
       </c>
       <c r="T611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -44516,7 +44516,7 @@
         <v>1</v>
       </c>
       <c r="S612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T612" t="n">
         <v>0</v>
@@ -44591,7 +44591,7 @@
         <v>0</v>
       </c>
       <c r="T613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -44663,7 +44663,7 @@
         <v>0</v>
       </c>
       <c r="T614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -44732,7 +44732,7 @@
         <v>1</v>
       </c>
       <c r="S615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T615" t="n">
         <v>0</v>
@@ -44804,7 +44804,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T616" t="n">
         <v>0</v>
@@ -44879,7 +44879,7 @@
         <v>0</v>
       </c>
       <c r="T617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -44948,7 +44948,7 @@
         <v>1</v>
       </c>
       <c r="S618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T618" t="n">
         <v>0</v>
@@ -45023,7 +45023,7 @@
         <v>0</v>
       </c>
       <c r="T619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -45095,7 +45095,7 @@
         <v>0</v>
       </c>
       <c r="T620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -45164,7 +45164,7 @@
         <v>1</v>
       </c>
       <c r="S621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T621" t="n">
         <v>0</v>
@@ -45236,7 +45236,7 @@
         <v>0</v>
       </c>
       <c r="S622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T622" t="n">
         <v>0</v>
@@ -45311,7 +45311,7 @@
         <v>0</v>
       </c>
       <c r="T623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -45383,7 +45383,7 @@
         <v>0</v>
       </c>
       <c r="T624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -45452,7 +45452,7 @@
         <v>1</v>
       </c>
       <c r="S625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T625" t="n">
         <v>0</v>
@@ -45524,7 +45524,7 @@
         <v>0</v>
       </c>
       <c r="S626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T626" t="n">
         <v>0</v>
@@ -45599,7 +45599,7 @@
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -45671,7 +45671,7 @@
         <v>0</v>
       </c>
       <c r="T628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -45740,7 +45740,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T629" t="n">
         <v>0</v>
@@ -45815,7 +45815,7 @@
         <v>0</v>
       </c>
       <c r="T630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -45884,7 +45884,7 @@
         <v>0</v>
       </c>
       <c r="S631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T631" t="n">
         <v>0</v>
@@ -45956,7 +45956,7 @@
         <v>1</v>
       </c>
       <c r="S632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T632" t="n">
         <v>0</v>
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="T633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -46100,7 +46100,7 @@
         <v>0</v>
       </c>
       <c r="S634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T634" t="n">
         <v>0</v>
@@ -46175,7 +46175,7 @@
         <v>0</v>
       </c>
       <c r="T635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -46247,7 +46247,7 @@
         <v>0</v>
       </c>
       <c r="T636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -46316,7 +46316,7 @@
         <v>1</v>
       </c>
       <c r="S637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T637" t="n">
         <v>0</v>
@@ -46388,7 +46388,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T638" t="n">
         <v>0</v>
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="T639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -46535,7 +46535,7 @@
         <v>0</v>
       </c>
       <c r="T640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -46604,7 +46604,7 @@
         <v>0</v>
       </c>
       <c r="S641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T641" t="n">
         <v>0</v>
@@ -46679,7 +46679,7 @@
         <v>0</v>
       </c>
       <c r="T642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -46748,7 +46748,7 @@
         <v>0</v>
       </c>
       <c r="S643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T643" t="n">
         <v>0</v>
@@ -46823,7 +46823,7 @@
         <v>0</v>
       </c>
       <c r="T644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -46892,7 +46892,7 @@
         <v>1</v>
       </c>
       <c r="S645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T645" t="n">
         <v>0</v>
@@ -46967,7 +46967,7 @@
         <v>0</v>
       </c>
       <c r="T646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -47036,7 +47036,7 @@
         <v>0</v>
       </c>
       <c r="S647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T647" t="n">
         <v>0</v>
@@ -47108,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="S648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T648" t="n">
         <v>0</v>
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="T649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -47252,7 +47252,7 @@
         <v>0</v>
       </c>
       <c r="S650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T650" t="n">
         <v>0</v>
@@ -47327,7 +47327,7 @@
         <v>0</v>
       </c>
       <c r="T651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -47396,7 +47396,7 @@
         <v>1</v>
       </c>
       <c r="S652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T652" t="n">
         <v>0</v>
@@ -47471,7 +47471,7 @@
         <v>0</v>
       </c>
       <c r="T653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="T654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -47612,7 +47612,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T655" t="n">
         <v>0</v>
@@ -47684,7 +47684,7 @@
         <v>1</v>
       </c>
       <c r="S656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T656" t="n">
         <v>0</v>
@@ -47759,7 +47759,7 @@
         <v>0</v>
       </c>
       <c r="T657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -47828,7 +47828,7 @@
         <v>0</v>
       </c>
       <c r="S658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T658" t="n">
         <v>0</v>
@@ -47903,7 +47903,7 @@
         <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -47972,7 +47972,7 @@
         <v>0</v>
       </c>
       <c r="S660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T660" t="n">
         <v>0</v>
@@ -48047,7 +48047,7 @@
         <v>0</v>
       </c>
       <c r="T661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -48116,7 +48116,7 @@
         <v>1</v>
       </c>
       <c r="S662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T662" t="n">
         <v>0</v>
@@ -48191,7 +48191,7 @@
         <v>0</v>
       </c>
       <c r="T663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -48263,7 +48263,7 @@
         <v>0</v>
       </c>
       <c r="T664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -48332,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="S665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T665" t="n">
         <v>0</v>
@@ -48404,7 +48404,7 @@
         <v>1</v>
       </c>
       <c r="S666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T666" t="n">
         <v>0</v>
@@ -48479,7 +48479,7 @@
         <v>0</v>
       </c>
       <c r="T667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -48548,7 +48548,7 @@
         <v>0</v>
       </c>
       <c r="S668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T668" t="n">
         <v>0</v>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="T669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -48692,7 +48692,7 @@
         <v>1</v>
       </c>
       <c r="S670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T670" t="n">
         <v>0</v>
@@ -48767,7 +48767,7 @@
         <v>0</v>
       </c>
       <c r="T671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -48839,7 +48839,7 @@
         <v>0</v>
       </c>
       <c r="T672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -48908,7 +48908,7 @@
         <v>1</v>
       </c>
       <c r="S673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T673" t="n">
         <v>0</v>
@@ -48980,7 +48980,7 @@
         <v>0</v>
       </c>
       <c r="S674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T674" t="n">
         <v>0</v>
@@ -49055,7 +49055,7 @@
         <v>0</v>
       </c>
       <c r="T675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -49127,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="T676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -49196,7 +49196,7 @@
         <v>1</v>
       </c>
       <c r="S677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T677" t="n">
         <v>0</v>
@@ -49271,7 +49271,7 @@
         <v>0</v>
       </c>
       <c r="T678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -49340,7 +49340,7 @@
         <v>1</v>
       </c>
       <c r="S679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T679" t="n">
         <v>0</v>
@@ -49412,7 +49412,7 @@
         <v>0</v>
       </c>
       <c r="S680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T680" t="n">
         <v>0</v>
@@ -49487,7 +49487,7 @@
         <v>0</v>
       </c>
       <c r="T681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -49559,7 +49559,7 @@
         <v>0</v>
       </c>
       <c r="T682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -49628,7 +49628,7 @@
         <v>0</v>
       </c>
       <c r="S683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T683" t="n">
         <v>0</v>
@@ -49703,7 +49703,7 @@
         <v>0</v>
       </c>
       <c r="T684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -49772,7 +49772,7 @@
         <v>1</v>
       </c>
       <c r="S685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T685" t="n">
         <v>0</v>
@@ -49844,7 +49844,7 @@
         <v>1</v>
       </c>
       <c r="S686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T686" t="n">
         <v>0</v>
@@ -49919,7 +49919,7 @@
         <v>0</v>
       </c>
       <c r="T687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -49988,7 +49988,7 @@
         <v>1</v>
       </c>
       <c r="S688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T688" t="n">
         <v>0</v>
@@ -50063,7 +50063,7 @@
         <v>0</v>
       </c>
       <c r="T689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -50276,7 +50276,7 @@
         <v>0</v>
       </c>
       <c r="S692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T692" t="n">
         <v>0</v>
@@ -50351,7 +50351,7 @@
         <v>0</v>
       </c>
       <c r="T693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="T694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -50492,7 +50492,7 @@
         <v>1</v>
       </c>
       <c r="S695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T695" t="n">
         <v>0</v>
@@ -50567,7 +50567,7 @@
         <v>0</v>
       </c>
       <c r="T696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -50636,7 +50636,7 @@
         <v>0</v>
       </c>
       <c r="S697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T697" t="n">
         <v>0</v>
@@ -50708,7 +50708,7 @@
         <v>1</v>
       </c>
       <c r="S698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T698" t="n">
         <v>0</v>
@@ -50783,7 +50783,7 @@
         <v>0</v>
       </c>
       <c r="T699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -50852,7 +50852,7 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T700" t="n">
         <v>0</v>
@@ -50927,7 +50927,7 @@
         <v>0</v>
       </c>
       <c r="T701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -50996,7 +50996,7 @@
         <v>0</v>
       </c>
       <c r="S702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T702" t="n">
         <v>0</v>
@@ -51071,7 +51071,7 @@
         <v>0</v>
       </c>
       <c r="T703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -51143,7 +51143,7 @@
         <v>0</v>
       </c>
       <c r="T704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -51212,7 +51212,7 @@
         <v>1</v>
       </c>
       <c r="S705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T705" t="n">
         <v>0</v>
@@ -51284,7 +51284,7 @@
         <v>0</v>
       </c>
       <c r="S706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T706" t="n">
         <v>0</v>
@@ -51359,7 +51359,7 @@
         <v>0</v>
       </c>
       <c r="T707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -51431,7 +51431,7 @@
         <v>0</v>
       </c>
       <c r="T708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -51500,7 +51500,7 @@
         <v>0</v>
       </c>
       <c r="S709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T709" t="n">
         <v>0</v>
@@ -51719,7 +51719,7 @@
         <v>0</v>
       </c>
       <c r="T712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -51788,7 +51788,7 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T713" t="n">
         <v>0</v>
@@ -51860,7 +51860,7 @@
         <v>0</v>
       </c>
       <c r="S714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T714" t="n">
         <v>0</v>
@@ -51935,7 +51935,7 @@
         <v>0</v>
       </c>
       <c r="T715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -52007,7 +52007,7 @@
         <v>0</v>
       </c>
       <c r="T716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -52076,7 +52076,7 @@
         <v>0</v>
       </c>
       <c r="S717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T717" t="n">
         <v>0</v>
@@ -52148,7 +52148,7 @@
         <v>0</v>
       </c>
       <c r="S718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T718" t="n">
         <v>0</v>
@@ -52223,7 +52223,7 @@
         <v>0</v>
       </c>
       <c r="T719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -52295,7 +52295,7 @@
         <v>0</v>
       </c>
       <c r="T720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -52364,7 +52364,7 @@
         <v>1</v>
       </c>
       <c r="S721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T721" t="n">
         <v>0</v>
@@ -52436,7 +52436,7 @@
         <v>0</v>
       </c>
       <c r="S722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T722" t="n">
         <v>0</v>
@@ -52511,7 +52511,7 @@
         <v>0</v>
       </c>
       <c r="T723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -52580,7 +52580,7 @@
         <v>1</v>
       </c>
       <c r="S724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T724" t="n">
         <v>0</v>
@@ -52655,7 +52655,7 @@
         <v>0</v>
       </c>
       <c r="T725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -52727,7 +52727,7 @@
         <v>0</v>
       </c>
       <c r="T726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -52796,7 +52796,7 @@
         <v>1</v>
       </c>
       <c r="S727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T727" t="n">
         <v>0</v>
@@ -52871,7 +52871,7 @@
         <v>0</v>
       </c>
       <c r="T728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -52940,7 +52940,7 @@
         <v>1</v>
       </c>
       <c r="S729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T729" t="n">
         <v>0</v>
@@ -53012,7 +53012,7 @@
         <v>1</v>
       </c>
       <c r="S730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T730" t="n">
         <v>0</v>
@@ -53087,7 +53087,7 @@
         <v>0</v>
       </c>
       <c r="T731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -53159,7 +53159,7 @@
         <v>0</v>
       </c>
       <c r="T732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -53228,7 +53228,7 @@
         <v>0</v>
       </c>
       <c r="S733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T733" t="n">
         <v>0</v>
@@ -53303,7 +53303,7 @@
         <v>0</v>
       </c>
       <c r="T734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -53372,7 +53372,7 @@
         <v>1</v>
       </c>
       <c r="S735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T735" t="n">
         <v>0</v>
@@ -53444,7 +53444,7 @@
         <v>1</v>
       </c>
       <c r="S736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T736" t="n">
         <v>0</v>
@@ -53519,7 +53519,7 @@
         <v>0</v>
       </c>
       <c r="T737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -53591,7 +53591,7 @@
         <v>0</v>
       </c>
       <c r="T738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -53660,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="S739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T739" t="n">
         <v>0</v>
@@ -53732,7 +53732,7 @@
         <v>1</v>
       </c>
       <c r="S740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T740" t="n">
         <v>0</v>
@@ -53807,7 +53807,7 @@
         <v>0</v>
       </c>
       <c r="T741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -53876,7 +53876,7 @@
         <v>0</v>
       </c>
       <c r="S742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T742" t="n">
         <v>0</v>
@@ -53951,7 +53951,7 @@
         <v>0</v>
       </c>
       <c r="T743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -54023,7 +54023,7 @@
         <v>0</v>
       </c>
       <c r="T744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -54092,7 +54092,7 @@
         <v>1</v>
       </c>
       <c r="S745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T745" t="n">
         <v>0</v>
@@ -54164,7 +54164,7 @@
         <v>1</v>
       </c>
       <c r="S746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T746" t="n">
         <v>0</v>
@@ -54239,7 +54239,7 @@
         <v>0</v>
       </c>
       <c r="T747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -54308,7 +54308,7 @@
         <v>0</v>
       </c>
       <c r="S748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T748" t="n">
         <v>0</v>
@@ -54383,7 +54383,7 @@
         <v>0</v>
       </c>
       <c r="T749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -54452,7 +54452,7 @@
         <v>0</v>
       </c>
       <c r="S750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T750" t="n">
         <v>0</v>
@@ -54527,7 +54527,7 @@
         <v>0</v>
       </c>
       <c r="T751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -54599,7 +54599,7 @@
         <v>0</v>
       </c>
       <c r="T752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -54668,7 +54668,7 @@
         <v>0</v>
       </c>
       <c r="S753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T753" t="n">
         <v>0</v>
@@ -54740,7 +54740,7 @@
         <v>1</v>
       </c>
       <c r="S754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T754" t="n">
         <v>0</v>
@@ -54815,7 +54815,7 @@
         <v>0</v>
       </c>
       <c r="T755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -54887,7 +54887,7 @@
         <v>0</v>
       </c>
       <c r="T756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -54956,7 +54956,7 @@
         <v>1</v>
       </c>
       <c r="S757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T757" t="n">
         <v>0</v>
@@ -55028,7 +55028,7 @@
         <v>1</v>
       </c>
       <c r="S758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T758" t="n">
         <v>0</v>
@@ -55103,7 +55103,7 @@
         <v>0</v>
       </c>
       <c r="T759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -55175,7 +55175,7 @@
         <v>0</v>
       </c>
       <c r="T760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -55244,7 +55244,7 @@
         <v>0</v>
       </c>
       <c r="S761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T761" t="n">
         <v>0</v>
